--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +433,177 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>616</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Chị duyên</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Khách cũ giới thiệu</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>617</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cô tú</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -557,7 +729,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +739,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +749,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>285714.2857142857</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +799,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="20">
@@ -767,7 +939,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>455714.2857142857</v>
       </c>
     </row>
     <row r="34">
@@ -783,11 +955,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>455714.2857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
@@ -604,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,33 +729,33 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phụ cấp tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70000</v>
+        <v>428571.4285714286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>285714.2857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -765,7 +765,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -775,7 +775,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -785,27 +785,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -815,7 +815,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -825,7 +825,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -835,27 +835,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -865,7 +865,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -875,7 +875,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -885,7 +885,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -895,7 +895,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -905,7 +905,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -915,7 +915,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -925,41 +925,31 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>528571.4285714286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>455714.2857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>455714.2857142857</v>
+        <v>528571.4285714286</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="13">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>428571.4285714286</v>
+        <v>1071428.571428572</v>
       </c>
     </row>
     <row r="14">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>528571.4285714286</v>
+        <v>1171428.571428572</v>
       </c>
     </row>
     <row r="33">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>528571.4285714286</v>
+        <v>1171428.571428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="13">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1071428.571428572</v>
+        <v>1357142.857142857</v>
       </c>
     </row>
     <row r="14">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="21">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1171428.571428572</v>
+        <v>457142.8571428573</v>
       </c>
     </row>
     <row r="33">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1171428.571428572</v>
+        <v>457142.8571428573</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,20 +577,321 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>649</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>H-Sa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>650</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mẹ mai sang</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>660</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>661</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yến</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>662</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>663</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cắt môi</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>664</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>100000</v>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>650000</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +1030,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -739,7 +1040,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1357142.857142857</v>
+        <v>2857142.857142857</v>
       </c>
     </row>
     <row r="14">
@@ -789,7 +1090,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="19">
@@ -809,7 +1110,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1000000</v>
+        <v>-3000000</v>
       </c>
     </row>
     <row r="21">
@@ -929,7 +1230,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>457142.8571428573</v>
+        <v>507142.8571428573</v>
       </c>
     </row>
     <row r="33">
@@ -949,7 +1250,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>457142.8571428573</v>
+        <v>507142.8571428573</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2857142.857142857</v>
+        <v>3142857.142857143</v>
       </c>
     </row>
     <row r="14">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>507142.8571428573</v>
+        <v>792857.1428571432</v>
       </c>
     </row>
     <row r="33">
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>507142.8571428573</v>
+        <v>792857.1428571432</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,20 +878,63 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>688</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C.hạnh</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>650000</v>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>700000</v>
       </c>
     </row>
   </sheetData>
@@ -1030,7 +1073,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -1040,7 +1083,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3142857.142857143</v>
+        <v>3285714.285714286</v>
       </c>
     </row>
     <row r="14">
@@ -1090,7 +1133,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>650000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1273,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>792857.1428571432</v>
+        <v>985714.2857142859</v>
       </c>
     </row>
     <row r="33">
@@ -1250,7 +1293,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>792857.1428571432</v>
+        <v>985714.2857142859</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3285714.285714286</v>
+        <v>3428571.428571429</v>
       </c>
     </row>
     <row r="14">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>985714.2857142859</v>
+        <v>1128571.428571429</v>
       </c>
     </row>
     <row r="33">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>985714.2857142859</v>
+        <v>1128571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3428571.428571429</v>
+        <v>3714285.714285715</v>
       </c>
     </row>
     <row r="14">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1128571.428571429</v>
+        <v>1414285.714285715</v>
       </c>
     </row>
     <row r="33">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1128571.428571429</v>
+        <v>1414285.714285715</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-30 Đào Vương Anh 8-2024.xlsx
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3714285.714285715</v>
+        <v>3857142.857142857</v>
       </c>
     </row>
     <row r="14">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1414285.714285715</v>
+        <v>1557142.857142857</v>
       </c>
     </row>
     <row r="33">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1414285.714285715</v>
+        <v>1557142.857142857</v>
       </c>
     </row>
   </sheetData>
